--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t>Anirudh Balakka</t>
   </si>
@@ -454,6 +454,12 @@
     <t>ayushpandey07</t>
   </si>
   <si>
+    <t>Keshavendra Singh</t>
+  </si>
+  <si>
+    <t>keshavendra</t>
+  </si>
+  <si>
     <t>Namburi Ramesh</t>
   </si>
   <si>
@@ -476,6 +482,30 @@
   </si>
   <si>
     <t>kumarbanti_kuma1</t>
+  </si>
+  <si>
+    <t>Purbid Bambroo</t>
+  </si>
+  <si>
+    <t>purbid_bambroo</t>
+  </si>
+  <si>
+    <t>Ankur Singh</t>
+  </si>
+  <si>
+    <t>ankur_singh4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanmith Mallikarjun </t>
+  </si>
+  <si>
+    <t>sanmith_mallika1</t>
+  </si>
+  <si>
+    <t>Kiran S</t>
+  </si>
+  <si>
+    <t>kiran_subramoni1</t>
   </si>
 </sst>
 </file>
@@ -807,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A77" activeCellId="3" sqref="A1:XFD1 A10:XFD10 A65:XFD65 A77:XFD77"/>
+      <selection activeCell="A63" sqref="A63:XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1431,6 +1461,46 @@
         <v>153</v>
       </c>
     </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>158</v>
+      </c>
+      <c r="B80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>162</v>
+      </c>
+      <c r="B82" t="s">
+        <v>163</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -844,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1017,7 +1017,7 @@
         <v>29</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1149,7 +1149,7 @@
         <v>53</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1270,7 +1270,7 @@
         <v>75</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1468,7 +1468,7 @@
         <v>111</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1490,7 +1490,7 @@
         <v>115</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -1,25 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet0" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
   <si>
     <t>Anirudh Balakka</t>
   </si>
@@ -511,67 +503,100 @@
   </si>
   <si>
     <t>kiran_subramoni1</t>
+  </si>
+  <si>
+    <t>Aditya Kumar</t>
+  </si>
+  <si>
+    <t>aditya_kumar10</t>
+  </si>
+  <si>
+    <t>Vivek Kumar</t>
+  </si>
+  <si>
+    <t>vivek_kumar_iitg</t>
+  </si>
+  <si>
+    <t>Shailendra Choudhary</t>
+  </si>
+  <si>
+    <t>svc_6001</t>
+  </si>
+  <si>
+    <t>Arnav Mathur</t>
+  </si>
+  <si>
+    <t>arnav_mathur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -595,77 +620,19 @@
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="0000FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -677,1088 +644,2017 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="1025" width="8.5703125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="27.14"/>
+    <col customWidth="1" min="2" max="2" width="23.0"/>
+    <col customWidth="1" min="3" max="6" width="8.57"/>
+    <col customWidth="1" min="7" max="26" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="C1" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C2" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="C3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="C4" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C7" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="C8" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C9" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C10" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="C11" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="C12" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="C13" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="C14" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="C15" s="3">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="C16" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="C17" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="C18" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="C19" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="C20" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="C21" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="C22" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="C23" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="C24" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+      <c r="C25" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+      <c r="C26" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+      <c r="C27" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+      <c r="C28" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+      <c r="C29" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+      <c r="C30" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
+      <c r="C31" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+      <c r="C32" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
+      <c r="C33" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+      <c r="C34" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
+      <c r="C35" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
+      <c r="C36" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
+      <c r="C37" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
+      <c r="C38" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
+      <c r="C39" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
+      <c r="C40" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
+      <c r="C41" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
+      <c r="C42" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
+      <c r="C43" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
+      <c r="C44" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
+      <c r="C45" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
+      <c r="C46" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
+      <c r="C47" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
+      <c r="C48" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
+      <c r="C49" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
+      <c r="C50" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
+      <c r="C51" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
+      <c r="C52" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
+      <c r="C53" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
+      <c r="C54" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
+      <c r="C55" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
+      <c r="C56" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
+      <c r="C57" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
+      <c r="C58" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
+      <c r="C59" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
+      <c r="C60" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
+      <c r="C61" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
+      <c r="C62" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
+      <c r="C63" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
+      <c r="C64" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
+      <c r="C65" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
+      <c r="C66" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
+      <c r="C67" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
+      <c r="C68" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
+      <c r="C69" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
+      <c r="C70" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
+      <c r="C71" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
+      <c r="C72" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
+      <c r="C73" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
+      <c r="C74" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
+      <c r="C75" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
+      <c r="C76" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
+      <c r="C77" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
+      <c r="C78" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
+      <c r="C79" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
+      <c r="C80" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
+      <c r="C81" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="C82" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t>Anirudh Balakka</t>
   </si>
@@ -527,6 +527,18 @@
   </si>
   <si>
     <t>arnav_mathur</t>
+  </si>
+  <si>
+    <t>Shreyas Bakre</t>
+  </si>
+  <si>
+    <t>shreyas_bakre1</t>
+  </si>
+  <si>
+    <t>Rishabh Gupta</t>
+  </si>
+  <si>
+    <t>rishabh_gupta4</t>
   </si>
 </sst>
 </file>
@@ -1305,8 +1317,8 @@
       <c r="B47" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="1">
-        <v>0.0</v>
+      <c r="C47" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -1404,8 +1416,8 @@
       <c r="B56" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="1">
-        <v>0.0</v>
+      <c r="C56" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
@@ -1738,8 +1750,28 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
     <row r="89" ht="15.75" customHeight="1"/>
     <row r="90" ht="15.75" customHeight="1"/>
     <row r="91" ht="15.75" customHeight="1"/>

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t>Anirudh Balakka</t>
   </si>
@@ -539,6 +539,12 @@
   </si>
   <si>
     <t>rishabh_gupta4</t>
+  </si>
+  <si>
+    <t>Ankit Lohiya</t>
+  </si>
+  <si>
+    <t>ankit13555</t>
   </si>
 </sst>
 </file>
@@ -1570,8 +1576,8 @@
       <c r="B70" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="1">
-        <v>0.0</v>
+      <c r="C70" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
@@ -1772,7 +1778,17 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
     <row r="90" ht="15.75" customHeight="1"/>
     <row r="91" ht="15.75" customHeight="1"/>
     <row r="92" ht="15.75" customHeight="1"/>

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t>Anirudh Balakka</t>
   </si>
@@ -545,6 +545,12 @@
   </si>
   <si>
     <t>ankit13555</t>
+  </si>
+  <si>
+    <t>Sanjib Panda</t>
+  </si>
+  <si>
+    <t>sanjib_panda</t>
   </si>
 </sst>
 </file>
@@ -1789,7 +1795,17 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
     <row r="91" ht="15.75" customHeight="1"/>
     <row r="92" ht="15.75" customHeight="1"/>
     <row r="93" ht="15.75" customHeight="1"/>

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -878,8 +878,8 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1">
-        <v>0.0</v>
+      <c r="C6" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -911,8 +911,8 @@
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1">
-        <v>0.0</v>
+      <c r="C9" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -933,8 +933,8 @@
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1">
-        <v>0.0</v>
+      <c r="C11" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -1021,8 +1021,8 @@
       <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="1">
-        <v>0.0</v>
+      <c r="C19" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
@@ -1076,8 +1076,8 @@
       <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="1">
-        <v>0.0</v>
+      <c r="C24" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -1142,8 +1142,8 @@
       <c r="B30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="1">
-        <v>0.0</v>
+      <c r="C30" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -1175,8 +1175,8 @@
       <c r="B33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="1">
-        <v>0.0</v>
+      <c r="C33" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -1252,8 +1252,8 @@
       <c r="B40" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="1">
-        <v>0.0</v>
+      <c r="C40" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -1340,8 +1340,8 @@
       <c r="B48" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="1">
-        <v>0.0</v>
+      <c r="C48" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
@@ -1461,8 +1461,8 @@
       <c r="B59" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="1">
-        <v>0.0</v>
+      <c r="C59" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -1494,8 +1494,8 @@
       <c r="B62" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="1">
-        <v>0.0</v>
+      <c r="C62" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -1670,8 +1670,8 @@
       <c r="B78" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C78" s="1">
-        <v>0.0</v>
+      <c r="C78" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
@@ -1703,8 +1703,8 @@
       <c r="B81" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C81" s="1">
-        <v>0.0</v>
+      <c r="C81" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t>Anirudh Balakka</t>
   </si>
@@ -551,6 +551,12 @@
   </si>
   <si>
     <t>sanjib_panda</t>
+  </si>
+  <si>
+    <t>Sunny Prasad</t>
+  </si>
+  <si>
+    <t>sunny_prasad</t>
   </si>
 </sst>
 </file>
@@ -1806,7 +1812,17 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C91" s="3">
+        <v>0.0</v>
+      </c>
+    </row>
     <row r="92" ht="15.75" customHeight="1"/>
     <row r="93" ht="15.75" customHeight="1"/>
     <row r="94" ht="15.75" customHeight="1"/>

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -873,8 +873,8 @@
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1">
-        <v>0.0</v>
+      <c r="C5" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -1005,8 +1005,8 @@
       <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="1">
-        <v>0.0</v>
+      <c r="C17" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
@@ -1269,8 +1269,8 @@
       <c r="B41" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="1">
-        <v>0.0</v>
+      <c r="C41" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -1313,8 +1313,8 @@
       <c r="B45" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="1">
-        <v>0.0</v>
+      <c r="C45" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -1379,8 +1379,8 @@
       <c r="B51" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="1">
-        <v>0.0</v>
+      <c r="C51" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
@@ -1390,8 +1390,8 @@
       <c r="B52" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="1">
-        <v>0.0</v>
+      <c r="C52" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
@@ -1478,8 +1478,8 @@
       <c r="B60" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="1">
-        <v>0.0</v>
+      <c r="C60" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
@@ -1555,8 +1555,8 @@
       <c r="B67" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="1">
-        <v>0.0</v>
+      <c r="C67" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -1577,8 +1577,8 @@
       <c r="B69" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C69" s="1">
-        <v>0.0</v>
+      <c r="C69" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -1610,8 +1610,8 @@
       <c r="B72" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C72" s="1">
-        <v>0.0</v>
+      <c r="C72" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
@@ -1654,8 +1654,8 @@
       <c r="B76" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C76" s="1">
-        <v>0.0</v>
+      <c r="C76" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
@@ -1665,8 +1665,8 @@
       <c r="B77" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C77" s="1">
-        <v>0.0</v>
+      <c r="C77" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -1159,8 +1159,8 @@
       <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="1">
-        <v>0.0</v>
+      <c r="C31" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -1192,8 +1192,8 @@
       <c r="B34" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="1">
-        <v>0.0</v>
+      <c r="C34" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
@@ -1280,8 +1280,8 @@
       <c r="B42" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="1">
-        <v>0.0</v>
+      <c r="C42" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -1357,8 +1357,8 @@
       <c r="B49" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="1">
-        <v>0.0</v>
+      <c r="C49" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
@@ -1412,8 +1412,8 @@
       <c r="B54" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="1">
-        <v>0.0</v>
+      <c r="C54" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -1599,8 +1599,8 @@
       <c r="B71" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C71" s="1">
-        <v>0.0</v>
+      <c r="C71" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -1731,8 +1731,8 @@
       <c r="B83" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C83" s="3">
-        <v>0.0</v>
+      <c r="C83" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
@@ -1742,8 +1742,8 @@
       <c r="B84" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C84" s="3">
-        <v>0.0</v>
+      <c r="C84" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
@@ -1764,8 +1764,8 @@
       <c r="B86" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C86" s="3">
-        <v>0.0</v>
+      <c r="C86" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
@@ -1775,8 +1775,8 @@
       <c r="B87" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C87" s="3">
-        <v>0.0</v>
+      <c r="C87" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -594,10 +594,10 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -928,8 +928,8 @@
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1">
-        <v>0.0</v>
+      <c r="C10" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -983,7 +983,7 @@
       <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>1.0</v>
       </c>
     </row>
@@ -1170,8 +1170,8 @@
       <c r="B32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="1">
-        <v>0.0</v>
+      <c r="C32" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -1412,8 +1412,8 @@
       <c r="B54" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="2">
-        <v>1.0</v>
+      <c r="C54" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -1533,8 +1533,8 @@
       <c r="B65" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="1">
-        <v>0.0</v>
+      <c r="C65" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -1687,8 +1687,8 @@
       <c r="B79" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C79" s="1">
-        <v>0.0</v>
+      <c r="C79" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
@@ -1725,10 +1725,10 @@
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>165</v>
       </c>
       <c r="C83" s="2">
@@ -1736,10 +1736,10 @@
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>167</v>
       </c>
       <c r="C84" s="2">
@@ -1747,21 +1747,21 @@
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>171</v>
       </c>
       <c r="C86" s="2">
@@ -1769,10 +1769,10 @@
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>173</v>
       </c>
       <c r="C87" s="2">
@@ -1786,18 +1786,18 @@
       <c r="B88" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="2">
         <v>0.0</v>
       </c>
     </row>
@@ -1805,21 +1805,21 @@
       <c r="A90" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="2">
         <v>0.0</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="2">
         <v>0.0</v>
       </c>
     </row>

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
   <si>
     <t>Anirudh Balakka</t>
   </si>
@@ -557,6 +557,24 @@
   </si>
   <si>
     <t>sunny_prasad</t>
+  </si>
+  <si>
+    <t>Aditya Upadhyay</t>
+  </si>
+  <si>
+    <t>aditya_upadhyay3</t>
+  </si>
+  <si>
+    <t>Utkarsh Deep</t>
+  </si>
+  <si>
+    <t>UtkarshDeep</t>
+  </si>
+  <si>
+    <t>Rahul Singh</t>
+  </si>
+  <si>
+    <t>rahul_singh02</t>
   </si>
 </sst>
 </file>
@@ -1823,9 +1841,39 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C93" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C94" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
     <row r="95" ht="15.75" customHeight="1"/>
     <row r="96" ht="15.75" customHeight="1"/>
     <row r="97" ht="15.75" customHeight="1"/>

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -979,8 +979,8 @@
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="1">
-        <v>0.0</v>
+      <c r="C13" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -1309,8 +1309,8 @@
       <c r="B43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="1">
-        <v>0.0</v>
+      <c r="C43" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -1507,8 +1507,8 @@
       <c r="B61" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="1">
-        <v>0.0</v>
+      <c r="C61" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -1650,8 +1650,8 @@
       <c r="B74" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C74" s="1">
-        <v>0.0</v>
+      <c r="C74" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
@@ -1661,8 +1661,8 @@
       <c r="B75" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C75" s="1">
-        <v>0.0</v>
+      <c r="C75" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
@@ -1848,8 +1848,8 @@
       <c r="B92" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C92" s="2">
-        <v>0.0</v>
+      <c r="C92" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
@@ -1859,8 +1859,8 @@
       <c r="B93" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C93" s="2">
-        <v>0.0</v>
+      <c r="C93" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t>Anirudh Balakka</t>
   </si>
@@ -575,6 +575,12 @@
   </si>
   <si>
     <t>rahul_singh02</t>
+  </si>
+  <si>
+    <t>Ashish Sabal</t>
+  </si>
+  <si>
+    <t>ashishsabal_HR</t>
   </si>
 </sst>
 </file>
@@ -1320,8 +1326,8 @@
       <c r="B44" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="1">
-        <v>0.0</v>
+      <c r="C44" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -1639,8 +1645,8 @@
       <c r="B73" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C73" s="1">
-        <v>0.0</v>
+      <c r="C73" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
@@ -1874,7 +1880,17 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C95" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
     <row r="96" ht="15.75" customHeight="1"/>
     <row r="97" ht="15.75" customHeight="1"/>
     <row r="98" ht="15.75" customHeight="1"/>

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <si>
     <t>Anirudh Balakka</t>
   </si>
@@ -581,6 +581,12 @@
   </si>
   <si>
     <t>ashishsabal_HR</t>
+  </si>
+  <si>
+    <t>Hari Babu Padarthi</t>
+  </si>
+  <si>
+    <t>padarthyharibabu</t>
   </si>
 </sst>
 </file>
@@ -1891,7 +1897,17 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C96" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
     <row r="97" ht="15.75" customHeight="1"/>
     <row r="98" ht="15.75" customHeight="1"/>
     <row r="99" ht="15.75" customHeight="1"/>

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -1002,8 +1002,8 @@
       <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="1">
-        <v>0.0</v>
+      <c r="C14" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
@@ -1893,8 +1893,8 @@
       <c r="B95" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C95" s="2">
-        <v>0.0</v>
+      <c r="C95" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -925,8 +925,8 @@
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1">
-        <v>0.0</v>
+      <c r="C7" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -1123,8 +1123,8 @@
       <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="1">
-        <v>0.0</v>
+      <c r="C25" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -1167,8 +1167,8 @@
       <c r="B29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="1">
-        <v>0.0</v>
+      <c r="C29" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -1431,8 +1431,8 @@
       <c r="B53" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="1">
-        <v>0.0</v>
+      <c r="C53" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -1541,7 +1541,7 @@
       <c r="B63" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" s="3">
         <v>0.0</v>
       </c>
     </row>
@@ -1827,8 +1827,8 @@
       <c r="B89" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C89" s="2">
-        <v>0.0</v>
+      <c r="C89" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
@@ -1849,8 +1849,8 @@
       <c r="B91" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C91" s="2">
-        <v>0.0</v>
+      <c r="C91" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -958,8 +958,8 @@
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2">
-        <v>1.0</v>
+      <c r="C10" s="3">
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
@@ -1750,8 +1750,8 @@
       <c r="B82" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C82" s="2">
-        <v>0.0</v>
+      <c r="C82" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
@@ -1816,8 +1816,8 @@
       <c r="B88" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C88" s="2">
-        <v>0.0</v>
+      <c r="C88" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="360" yWindow="600" windowWidth="19815" windowHeight="7365"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet0" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -592,58 +595,59 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="3">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -833,26 +837,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="27.14"/>
-    <col customWidth="1" min="2" max="2" width="23.0"/>
-    <col customWidth="1" min="3" max="6" width="8.57"/>
-    <col customWidth="1" min="7" max="26" width="8.71"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="6" width="8.5703125" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -860,10 +866,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -871,10 +877,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -882,10 +888,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -893,10 +899,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -904,10 +910,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -915,10 +921,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -926,10 +932,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -937,10 +943,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -948,10 +954,10 @@
         <v>17</v>
       </c>
       <c r="C9" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -959,10 +965,10 @@
         <v>19</v>
       </c>
       <c r="C10" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -970,10 +976,10 @@
         <v>21</v>
       </c>
       <c r="C11" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -981,10 +987,10 @@
         <v>23</v>
       </c>
       <c r="C12" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -992,10 +998,10 @@
         <v>25</v>
       </c>
       <c r="C13" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1003,10 +1009,10 @@
         <v>27</v>
       </c>
       <c r="C14" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1014,10 +1020,10 @@
         <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1025,10 +1031,10 @@
         <v>31</v>
       </c>
       <c r="C16" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1036,10 +1042,10 @@
         <v>33</v>
       </c>
       <c r="C17" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1047,10 +1053,10 @@
         <v>35</v>
       </c>
       <c r="C18" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1058,10 +1064,10 @@
         <v>37</v>
       </c>
       <c r="C19" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1069,10 +1075,10 @@
         <v>39</v>
       </c>
       <c r="C20" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -1080,10 +1086,10 @@
         <v>41</v>
       </c>
       <c r="C21" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1091,10 +1097,10 @@
         <v>43</v>
       </c>
       <c r="C22" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -1102,10 +1108,10 @@
         <v>45</v>
       </c>
       <c r="C23" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -1113,10 +1119,10 @@
         <v>47</v>
       </c>
       <c r="C24" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1124,10 +1130,10 @@
         <v>49</v>
       </c>
       <c r="C25" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -1135,10 +1141,10 @@
         <v>51</v>
       </c>
       <c r="C26" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -1146,10 +1152,10 @@
         <v>53</v>
       </c>
       <c r="C27" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -1157,10 +1163,10 @@
         <v>55</v>
       </c>
       <c r="C28" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -1168,10 +1174,10 @@
         <v>57</v>
       </c>
       <c r="C29" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -1179,10 +1185,10 @@
         <v>59</v>
       </c>
       <c r="C30" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -1190,10 +1196,10 @@
         <v>61</v>
       </c>
       <c r="C31" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -1201,10 +1207,10 @@
         <v>63</v>
       </c>
       <c r="C32" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -1212,10 +1218,10 @@
         <v>65</v>
       </c>
       <c r="C33" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -1223,10 +1229,10 @@
         <v>67</v>
       </c>
       <c r="C34" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -1234,10 +1240,10 @@
         <v>69</v>
       </c>
       <c r="C35" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
@@ -1245,10 +1251,10 @@
         <v>71</v>
       </c>
       <c r="C36" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
@@ -1256,10 +1262,10 @@
         <v>73</v>
       </c>
       <c r="C37" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
@@ -1267,10 +1273,10 @@
         <v>75</v>
       </c>
       <c r="C38" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -1278,10 +1284,10 @@
         <v>77</v>
       </c>
       <c r="C39" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
@@ -1289,10 +1295,10 @@
         <v>79</v>
       </c>
       <c r="C40" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
@@ -1300,10 +1306,10 @@
         <v>81</v>
       </c>
       <c r="C41" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -1311,10 +1317,10 @@
         <v>83</v>
       </c>
       <c r="C42" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
@@ -1322,10 +1328,10 @@
         <v>85</v>
       </c>
       <c r="C43" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -1333,10 +1339,10 @@
         <v>87</v>
       </c>
       <c r="C44" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -1344,10 +1350,10 @@
         <v>89</v>
       </c>
       <c r="C45" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
@@ -1355,10 +1361,10 @@
         <v>91</v>
       </c>
       <c r="C46" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
@@ -1366,10 +1372,10 @@
         <v>93</v>
       </c>
       <c r="C47" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
@@ -1377,10 +1383,10 @@
         <v>95</v>
       </c>
       <c r="C48" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
@@ -1388,10 +1394,10 @@
         <v>97</v>
       </c>
       <c r="C49" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
@@ -1399,10 +1405,10 @@
         <v>99</v>
       </c>
       <c r="C50" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
@@ -1410,10 +1416,10 @@
         <v>101</v>
       </c>
       <c r="C51" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
@@ -1421,10 +1427,10 @@
         <v>103</v>
       </c>
       <c r="C52" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
@@ -1432,10 +1438,10 @@
         <v>105</v>
       </c>
       <c r="C53" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -1443,10 +1449,10 @@
         <v>107</v>
       </c>
       <c r="C54" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -1454,10 +1460,10 @@
         <v>109</v>
       </c>
       <c r="C55" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -1465,10 +1471,10 @@
         <v>111</v>
       </c>
       <c r="C56" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -1476,10 +1482,10 @@
         <v>113</v>
       </c>
       <c r="C57" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
@@ -1487,10 +1493,10 @@
         <v>115</v>
       </c>
       <c r="C58" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
@@ -1498,10 +1504,10 @@
         <v>117</v>
       </c>
       <c r="C59" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
@@ -1509,10 +1515,10 @@
         <v>119</v>
       </c>
       <c r="C60" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
@@ -1520,10 +1526,10 @@
         <v>121</v>
       </c>
       <c r="C61" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
@@ -1531,10 +1537,10 @@
         <v>123</v>
       </c>
       <c r="C62" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
@@ -1542,10 +1548,10 @@
         <v>125</v>
       </c>
       <c r="C63" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
@@ -1553,10 +1559,10 @@
         <v>127</v>
       </c>
       <c r="C64" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>128</v>
       </c>
@@ -1564,10 +1570,10 @@
         <v>129</v>
       </c>
       <c r="C65" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>130</v>
       </c>
@@ -1575,10 +1581,10 @@
         <v>131</v>
       </c>
       <c r="C66" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>132</v>
       </c>
@@ -1586,10 +1592,10 @@
         <v>133</v>
       </c>
       <c r="C67" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>134</v>
       </c>
@@ -1597,10 +1603,10 @@
         <v>135</v>
       </c>
       <c r="C68" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>136</v>
       </c>
@@ -1608,10 +1614,10 @@
         <v>137</v>
       </c>
       <c r="C69" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>138</v>
       </c>
@@ -1619,10 +1625,10 @@
         <v>139</v>
       </c>
       <c r="C70" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>140</v>
       </c>
@@ -1630,10 +1636,10 @@
         <v>141</v>
       </c>
       <c r="C71" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>142</v>
       </c>
@@ -1641,10 +1647,10 @@
         <v>143</v>
       </c>
       <c r="C72" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>144</v>
       </c>
@@ -1652,10 +1658,10 @@
         <v>145</v>
       </c>
       <c r="C73" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>146</v>
       </c>
@@ -1663,10 +1669,10 @@
         <v>147</v>
       </c>
       <c r="C74" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>148</v>
       </c>
@@ -1674,10 +1680,10 @@
         <v>149</v>
       </c>
       <c r="C75" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
         <v>150</v>
       </c>
@@ -1685,10 +1691,10 @@
         <v>151</v>
       </c>
       <c r="C76" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>152</v>
       </c>
@@ -1696,10 +1702,10 @@
         <v>153</v>
       </c>
       <c r="C77" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>154</v>
       </c>
@@ -1707,10 +1713,10 @@
         <v>155</v>
       </c>
       <c r="C78" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>156</v>
       </c>
@@ -1718,10 +1724,10 @@
         <v>157</v>
       </c>
       <c r="C79" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>158</v>
       </c>
@@ -1729,10 +1735,10 @@
         <v>159</v>
       </c>
       <c r="C80" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15.75" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
@@ -1740,10 +1746,10 @@
         <v>161</v>
       </c>
       <c r="C81" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.75" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
@@ -1751,10 +1757,10 @@
         <v>163</v>
       </c>
       <c r="C82" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15.75" customHeight="1">
       <c r="A83" s="2" t="s">
         <v>164</v>
       </c>
@@ -1762,10 +1768,10 @@
         <v>165</v>
       </c>
       <c r="C83" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15.75" customHeight="1">
       <c r="A84" s="2" t="s">
         <v>166</v>
       </c>
@@ -1773,10 +1779,10 @@
         <v>167</v>
       </c>
       <c r="C84" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15.75" customHeight="1">
       <c r="A85" s="2" t="s">
         <v>168</v>
       </c>
@@ -1784,10 +1790,10 @@
         <v>169</v>
       </c>
       <c r="C85" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15.75" customHeight="1">
       <c r="A86" s="2" t="s">
         <v>170</v>
       </c>
@@ -1795,10 +1801,10 @@
         <v>171</v>
       </c>
       <c r="C86" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15.75" customHeight="1">
       <c r="A87" s="2" t="s">
         <v>172</v>
       </c>
@@ -1806,10 +1812,10 @@
         <v>173</v>
       </c>
       <c r="C87" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15.75" customHeight="1">
       <c r="A88" s="2" t="s">
         <v>174</v>
       </c>
@@ -1817,10 +1823,10 @@
         <v>175</v>
       </c>
       <c r="C88" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15.75" customHeight="1">
       <c r="A89" s="2" t="s">
         <v>176</v>
       </c>
@@ -1828,10 +1834,10 @@
         <v>177</v>
       </c>
       <c r="C89" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15.75" customHeight="1">
       <c r="A90" s="2" t="s">
         <v>178</v>
       </c>
@@ -1839,10 +1845,10 @@
         <v>179</v>
       </c>
       <c r="C90" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15.75" customHeight="1">
       <c r="A91" s="2" t="s">
         <v>180</v>
       </c>
@@ -1850,10 +1856,10 @@
         <v>181</v>
       </c>
       <c r="C91" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15.75" customHeight="1">
       <c r="A92" s="2" t="s">
         <v>182</v>
       </c>
@@ -1861,10 +1867,10 @@
         <v>183</v>
       </c>
       <c r="C92" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15.75" customHeight="1">
       <c r="A93" s="3" t="s">
         <v>184</v>
       </c>
@@ -1872,10 +1878,10 @@
         <v>185</v>
       </c>
       <c r="C93" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15.75" customHeight="1">
       <c r="A94" s="2" t="s">
         <v>186</v>
       </c>
@@ -1883,10 +1889,10 @@
         <v>187</v>
       </c>
       <c r="C94" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15.75" customHeight="1">
       <c r="A95" s="2" t="s">
         <v>188</v>
       </c>
@@ -1894,10 +1900,10 @@
         <v>189</v>
       </c>
       <c r="C95" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15.75" customHeight="1">
       <c r="A96" s="2" t="s">
         <v>190</v>
       </c>
@@ -1905,7 +1911,7 @@
         <v>191</v>
       </c>
       <c r="C96" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1"/>
@@ -2812,9 +2818,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -846,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1163,7 +1163,7 @@
         <v>55</v>
       </c>
       <c r="C28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1">
@@ -1449,7 +1449,7 @@
         <v>107</v>
       </c>
       <c r="C54" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1">
@@ -1548,7 +1548,7 @@
         <v>125</v>
       </c>
       <c r="C63" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" customHeight="1">
@@ -1790,7 +1790,7 @@
         <v>169</v>
       </c>
       <c r="C85" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1">
@@ -1845,7 +1845,7 @@
         <v>179</v>
       </c>
       <c r="C90" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" customHeight="1">

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -846,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1141,7 +1141,7 @@
         <v>51</v>
       </c>
       <c r="C26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1">

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -846,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1460,7 +1460,7 @@
         <v>109</v>
       </c>
       <c r="C55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1">

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
   <si>
     <t>Anirudh Balakka</t>
   </si>
@@ -590,13 +590,19 @@
   </si>
   <si>
     <t>padarthyharibabu</t>
+  </si>
+  <si>
+    <t>Ashutosh Menghrajani</t>
+  </si>
+  <si>
+    <t>ashu_menghrajani</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -610,6 +616,11 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -632,11 +643,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -846,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -965,7 +977,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1914,22 +1926,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="97" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A97" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" t="s">
+        <v>193</v>
+      </c>
+      <c r="C97" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="99" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="100" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="101" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="102" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="103" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="104" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="105" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="106" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="107" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="108" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="109" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="110" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="111" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="112" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="113" ht="15.75" customHeight="1"/>
     <row r="114" ht="15.75" customHeight="1"/>
     <row r="115" ht="15.75" customHeight="1"/>
@@ -2819,6 +2841,6 @@
     <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t>Anirudh Balakka</t>
   </si>
@@ -596,6 +596,24 @@
   </si>
   <si>
     <t>ashu_menghrajani</t>
+  </si>
+  <si>
+    <t>saboo_aparna1</t>
+  </si>
+  <si>
+    <t>Aparna Saboo</t>
+  </si>
+  <si>
+    <t>yashok42</t>
+  </si>
+  <si>
+    <t>Ashok Yadav</t>
+  </si>
+  <si>
+    <t>kanhu_panda</t>
+  </si>
+  <si>
+    <t>Kanhucharan Panda</t>
   </si>
 </sst>
 </file>
@@ -859,7 +877,7 @@
   <dimension ref="A1:C999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+      <selection activeCell="J97" sqref="J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1937,9 +1955,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="99" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="100" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="98" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A98" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B98" t="s">
+        <v>194</v>
+      </c>
+      <c r="C98" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A99" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B99" t="s">
+        <v>196</v>
+      </c>
+      <c r="C99" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A100" t="s">
+        <v>199</v>
+      </c>
+      <c r="B100" t="s">
+        <v>198</v>
+      </c>
+      <c r="C100" s="2">
+        <v>0</v>
+      </c>
+    </row>
     <row r="101" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="102" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="103" spans="1:3" ht="15.75" customHeight="1"/>

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
     <t>Anirudh Balakka</t>
   </si>
@@ -614,6 +614,12 @@
   </si>
   <si>
     <t>Kanhucharan Panda</t>
+  </si>
+  <si>
+    <t>vinayak_chiluka</t>
+  </si>
+  <si>
+    <t>Vinayak Chiluka</t>
   </si>
 </sst>
 </file>
@@ -876,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="J97" sqref="J97"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1988,7 +1994,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="101" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A101" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B101" t="s">
+        <v>200</v>
+      </c>
+      <c r="C101" s="4">
+        <v>0</v>
+      </c>
+    </row>
     <row r="102" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="103" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="104" spans="1:3" ht="15.75" customHeight="1"/>

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1111,7 +1111,7 @@
         <v>39</v>
       </c>
       <c r="C20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <si>
     <t>Anirudh Balakka</t>
   </si>
@@ -620,6 +620,12 @@
   </si>
   <si>
     <t>Vinayak Chiluka</t>
+  </si>
+  <si>
+    <t>Poonam Agarwal</t>
+  </si>
+  <si>
+    <t>poonam_agarwal</t>
   </si>
 </sst>
 </file>
@@ -882,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2005,7 +2011,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="102" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A102" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" t="s">
+        <v>203</v>
+      </c>
+      <c r="C102" s="2">
+        <v>0</v>
+      </c>
+    </row>
     <row r="103" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="104" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="105" spans="1:3" ht="15.75" customHeight="1"/>

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -888,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1832,7 +1832,7 @@
         <v>169</v>
       </c>
       <c r="C85" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1">

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -889,7 +889,7 @@
   <dimension ref="A1:C999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+      <selection activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1832,7 +1832,7 @@
         <v>169</v>
       </c>
       <c r="C85" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1">

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
   <si>
     <t>Anirudh Balakka</t>
   </si>
@@ -626,6 +626,12 @@
   </si>
   <si>
     <t>poonam_agarwal</t>
+  </si>
+  <si>
+    <t>pradipprakash_t1</t>
+  </si>
+  <si>
+    <t>Pradip Talekar</t>
   </si>
 </sst>
 </file>
@@ -889,7 +895,7 @@
   <dimension ref="A1:C999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="I86" sqref="I86"/>
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2022,7 +2028,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="103" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A103" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B103" t="s">
+        <v>204</v>
+      </c>
+      <c r="C103" s="4">
+        <v>0</v>
+      </c>
+    </row>
     <row r="104" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="105" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="106" spans="1:3" ht="15.75" customHeight="1"/>

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -895,7 +895,7 @@
   <dimension ref="A1:C999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1992,7 +1992,7 @@
         <v>196</v>
       </c>
       <c r="C99" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.75" customHeight="1">

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -895,7 +895,7 @@
   <dimension ref="A1:C999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2014,7 +2014,7 @@
         <v>200</v>
       </c>
       <c r="C101" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75" customHeight="1">

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -895,7 +895,7 @@
   <dimension ref="A1:C999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2025,7 +2025,7 @@
         <v>203</v>
       </c>
       <c r="C102" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75" customHeight="1">

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -894,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1453,7 +1453,7 @@
         <v>99</v>
       </c>
       <c r="C50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1">
@@ -1783,7 +1783,7 @@
         <v>159</v>
       </c>
       <c r="C80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75" customHeight="1">
@@ -1959,7 +1959,7 @@
         <v>191</v>
       </c>
       <c r="C96" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75" customHeight="1">

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -895,7 +895,7 @@
   <dimension ref="A1:C999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1970,7 +1970,7 @@
         <v>193</v>
       </c>
       <c r="C97" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75" customHeight="1">

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
   <si>
     <t>Anirudh Balakka</t>
   </si>
@@ -632,6 +632,12 @@
   </si>
   <si>
     <t>Pradip Talekar</t>
+  </si>
+  <si>
+    <t>swatikadu221</t>
+  </si>
+  <si>
+    <t>Swati Singh</t>
   </si>
 </sst>
 </file>
@@ -894,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1035,7 +1041,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2039,7 +2045,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="104" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A104" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B104" t="s">
+        <v>206</v>
+      </c>
+      <c r="C104" s="2">
+        <v>0</v>
+      </c>
+    </row>
     <row r="105" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="106" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="107" spans="1:3" ht="15.75" customHeight="1"/>

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
   <si>
     <t>Anirudh Balakka</t>
   </si>
@@ -638,6 +638,30 @@
   </si>
   <si>
     <t>Swati Singh</t>
+  </si>
+  <si>
+    <t>Harsh Mehta</t>
+  </si>
+  <si>
+    <t>harsh_mehta2</t>
+  </si>
+  <si>
+    <t>Priya Agrawal</t>
+  </si>
+  <si>
+    <t>priya_agrawal3</t>
+  </si>
+  <si>
+    <t>Ravi Kumar Sharma</t>
+  </si>
+  <si>
+    <t>rksharma2180</t>
+  </si>
+  <si>
+    <t>Nimit Bansal</t>
+  </si>
+  <si>
+    <t>NimitBnsl</t>
   </si>
 </sst>
 </file>
@@ -685,12 +709,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -900,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1844,7 +1869,7 @@
         <v>169</v>
       </c>
       <c r="C85" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1">
@@ -2056,10 +2081,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="106" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="107" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="108" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="105" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A105" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" t="s">
+        <v>209</v>
+      </c>
+      <c r="C105" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A106" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" t="s">
+        <v>211</v>
+      </c>
+      <c r="C106" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A107" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C107" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A108" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C108" s="2">
+        <v>0</v>
+      </c>
+    </row>
     <row r="109" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="110" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="111" spans="1:3" ht="15.75" customHeight="1"/>

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -926,7 +926,7 @@
   <dimension ref="A1:C999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2034,7 +2034,7 @@
         <v>198</v>
       </c>
       <c r="C100" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" customHeight="1">
@@ -2111,7 +2111,7 @@
         <v>213</v>
       </c>
       <c r="C107" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75" customHeight="1">

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -926,7 +926,7 @@
   <dimension ref="A1:C999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2089,7 +2089,7 @@
         <v>209</v>
       </c>
       <c r="C105" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75" customHeight="1">

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1330,7 +1330,7 @@
         <v>71</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1363,7 +1363,7 @@
         <v>77</v>
       </c>
       <c r="C39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
@@ -2078,7 +2078,7 @@
         <v>206</v>
       </c>
       <c r="C104" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75" customHeight="1">
@@ -2100,7 +2100,7 @@
         <v>211</v>
       </c>
       <c r="C106" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.75" customHeight="1">
@@ -2122,7 +2122,7 @@
         <v>215</v>
       </c>
       <c r="C108" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.75" customHeight="1"/>

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1044,7 +1044,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -926,7 +926,7 @@
   <dimension ref="A1:C999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1132,7 +1132,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1319,7 +1319,7 @@
         <v>69</v>
       </c>
       <c r="C35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1">

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
   <si>
     <t>Anirudh Balakka</t>
   </si>
@@ -662,6 +662,24 @@
   </si>
   <si>
     <t>NimitBnsl</t>
+  </si>
+  <si>
+    <t>Prabhat Kumar</t>
+  </si>
+  <si>
+    <t>prabhat236218</t>
+  </si>
+  <si>
+    <t>raghu96</t>
+  </si>
+  <si>
+    <t>Raghu Mahajan</t>
+  </si>
+  <si>
+    <t>Hardy Tom</t>
+  </si>
+  <si>
+    <t>hardytom</t>
   </si>
 </sst>
 </file>
@@ -925,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2125,9 +2143,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="110" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="111" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="109" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A109" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" t="s">
+        <v>217</v>
+      </c>
+      <c r="C109" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A110" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B110" t="s">
+        <v>218</v>
+      </c>
+      <c r="C110" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A111" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C111" s="4">
+        <v>0</v>
+      </c>
+    </row>
     <row r="112" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="113" ht="15.75" customHeight="1"/>
     <row r="114" ht="15.75" customHeight="1"/>

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="227">
   <si>
     <t>Anirudh Balakka</t>
   </si>
@@ -680,6 +680,21 @@
   </si>
   <si>
     <t>hardytom</t>
+  </si>
+  <si>
+    <t>kshitija_kore1</t>
+  </si>
+  <si>
+    <t>Kshitija Kore</t>
+  </si>
+  <si>
+    <t>rahul_singh18</t>
+  </si>
+  <si>
+    <t>navinnarshetty</t>
+  </si>
+  <si>
+    <t>Navin Narshetty</t>
   </si>
 </sst>
 </file>
@@ -944,7 +959,7 @@
   <dimension ref="A1:C999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2176,23 +2191,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="112" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A112" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B112" t="s">
+        <v>222</v>
+      </c>
+      <c r="C112" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A113" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C113" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A114" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" t="s">
+        <v>225</v>
+      </c>
+      <c r="C114" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="116" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="117" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="118" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="119" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="120" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="121" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="122" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="123" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="124" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="125" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="126" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="127" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="128" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="129" ht="15.75" customHeight="1"/>
     <row r="130" ht="15.75" customHeight="1"/>
     <row r="131" ht="15.75" customHeight="1"/>

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -959,7 +959,7 @@
   <dimension ref="A1:C999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114"/>
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2100,7 +2100,7 @@
         <v>204</v>
       </c>
       <c r="C103" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75" customHeight="1">

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="229">
   <si>
     <t>Anirudh Balakka</t>
   </si>
@@ -695,6 +695,12 @@
   </si>
   <si>
     <t>Navin Narshetty</t>
+  </si>
+  <si>
+    <t>archit_desai</t>
+  </si>
+  <si>
+    <t>Archit Anuj Desai</t>
   </si>
 </sst>
 </file>
@@ -958,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1374,7 +1380,7 @@
         <v>73</v>
       </c>
       <c r="C37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
@@ -1594,7 +1600,7 @@
         <v>113</v>
       </c>
       <c r="C57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1">
@@ -2224,7 +2230,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="115" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A115" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" t="s">
+        <v>227</v>
+      </c>
+      <c r="C115" s="4">
+        <v>0</v>
+      </c>
+    </row>
     <row r="116" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="117" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="118" spans="1:3" ht="15.75" customHeight="1"/>

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -964,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2172,7 +2172,7 @@
         <v>217</v>
       </c>
       <c r="C109" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75" customHeight="1">

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -964,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1006,7 +1006,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2216,7 +2216,7 @@
         <v>224</v>
       </c>
       <c r="C113" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.75" customHeight="1">

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -964,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1776,7 +1776,7 @@
         <v>145</v>
       </c>
       <c r="C73" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1">
@@ -2183,7 +2183,7 @@
         <v>218</v>
       </c>
       <c r="C110" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75" customHeight="1">
@@ -2205,7 +2205,7 @@
         <v>222</v>
       </c>
       <c r="C112" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15.75" customHeight="1">
@@ -2227,7 +2227,7 @@
         <v>225</v>
       </c>
       <c r="C114" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15.75" customHeight="1">

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="231">
   <si>
     <t>Anirudh Balakka</t>
   </si>
@@ -701,6 +701,12 @@
   </si>
   <si>
     <t>Archit Anuj Desai</t>
+  </si>
+  <si>
+    <t>dipti_sahu</t>
+  </si>
+  <si>
+    <t>Dipti Ranjan</t>
   </si>
 </sst>
 </file>
@@ -964,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2241,7 +2247,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="116" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A116" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" t="s">
+        <v>229</v>
+      </c>
+      <c r="C116" s="2">
+        <v>0</v>
+      </c>
+    </row>
     <row r="117" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="118" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="119" spans="1:3" ht="15.75" customHeight="1"/>

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1177,7 +1177,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">

--- a/src/main/resources/profiles.xlsx
+++ b/src/main/resources/profiles.xlsx
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2057,7 +2057,7 @@
         <v>194</v>
       </c>
       <c r="C98" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15.75" customHeight="1">
